--- a/src/main/resources/xlsx/cadre/cadre_company_list_confirm.xlsx
+++ b/src/main/resources/xlsx/cadre/cadre_company_list_confirm.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>经商办企业情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□到期退出  □未到期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,10 +103,6 @@
 3. “经商办企业情况”中填写“双肩挑”领导人员因科技成果转化按照规定所获所持股权的企业情况，以及未经组织审批违规经商办企业情况；中层领导人员如无经商办企业情况，进行“零报告”，在此栏中填写“无”；“注册资本及个人出资（持股）比例”一栏，如因科技成果转化持股，填写持股比例；“注册地”应填写到市区，如某某市某某区；“经营状态”包括在业、吊销、注销、吊销未注销等；
 4. 如有未尽事宜或特殊情况，请在备注栏中进行说明。
 5. 本表正反面打印，一式3份，所在院级党组织、中层领导人员本人、党委组织部各留存1份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□到期退出  □未到期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +154,10 @@
       <t xml:space="preserve">                          签字：              
                                                                                                                 年    月    日</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□到期退出  □未到期  □不在清理范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,9 +329,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -346,6 +339,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="31.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,13 +674,14 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -701,12 +698,12 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
@@ -717,7 +714,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
@@ -731,8 +728,8 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -740,280 +737,280 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -1032,62 +1029,62 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="6" t="s">
-        <v>19</v>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="23" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="8">
         <v>1</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="11"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="27" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1183,8 +1180,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C第 &amp;P 页，共 &amp;N 页</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>